--- a/DesignPatternsTypes.xlsx
+++ b/DesignPatternsTypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC\DesignPatterns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC\DesignPatterns1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0F028-6306-4037-8006-EF346D7D4F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E7305-A886-49DB-9CEE-AE19E301772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB959425-BE6D-47DE-A758-73FB06B1F4F5}"/>
   </bookViews>
@@ -258,8 +258,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,18 +280,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +617,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,115 +629,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="4"/>
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -765,17 +762,17 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:E18" si="0">(A16+B16+C16)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -785,18 +782,18 @@
       </c>
       <c r="B18">
         <f t="shared" ref="B18:C18" si="1">(B15-B16)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DesignPatternsTypes.xlsx
+++ b/DesignPatternsTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC\DesignPatterns1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E7305-A886-49DB-9CEE-AE19E301772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A381CE-FE8B-4E11-B6A9-5AA3A55A67E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB959425-BE6D-47DE-A758-73FB06B1F4F5}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Behavioral</t>
   </si>
   <si>
-    <t>Chani of Responsibility</t>
-  </si>
-  <si>
     <t>Command</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>(Remaining)</t>
+  </si>
+  <si>
+    <t>Chain of Responsibility</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -688,18 +688,18 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -717,26 +717,26 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="C11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <f>(A15+B15+C15)</f>
@@ -762,17 +762,17 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:E18" si="0">(A16+B16+C16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -782,18 +782,18 @@
       </c>
       <c r="B18">
         <f t="shared" ref="B18:C18" si="1">(B15-B16)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DesignPatternsTypes.xlsx
+++ b/DesignPatternsTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC\DesignPatterns1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A381CE-FE8B-4E11-B6A9-5AA3A55A67E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B96D3-96A3-47EE-9E63-C4AFB0372B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB959425-BE6D-47DE-A758-73FB06B1F4F5}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -765,14 +765,14 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:E18" si="0">(A16+B16+C16)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -786,14 +786,14 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DesignPatternsTypes.xlsx
+++ b/DesignPatternsTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC\DesignPatterns1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B96D3-96A3-47EE-9E63-C4AFB0372B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F936554-DB17-4976-B9B4-B4617E72AE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB959425-BE6D-47DE-A758-73FB06B1F4F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Design Patterns Types</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Chain of Responsibility</t>
+  </si>
+  <si>
+    <t>Iterator</t>
   </si>
 </sst>
 </file>
@@ -614,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAC5D36-500D-4109-A615-C86CED6D479D}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,66 +735,72 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <f>(A15+B15+C15)</f>
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <f>(A16+B16+C16)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E19" si="0">(A17+B17+C17)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>(A16-A17)</f>
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:C19" si="1">(B16-B17)</f>
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E18" si="0">(A16+B16+C16)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <f>(A15-A16)</f>
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:C18" si="1">(B15-B16)</f>
-        <v>4</v>
-      </c>
-      <c r="C18">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>

--- a/DesignPatternsTypes.xlsx
+++ b/DesignPatternsTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC\DesignPatterns1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F936554-DB17-4976-B9B4-B4617E72AE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B9A161-6A8B-45D3-AE7C-7C937108895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB959425-BE6D-47DE-A758-73FB06B1F4F5}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,7 +676,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -719,7 +719,7 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -771,17 +771,17 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:E19" si="0">(A17+B17+C17)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -791,18 +791,18 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:C19" si="1">(B16-B17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
